--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308862.6015433366</v>
+        <v>-271332.056586791</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16693787.93026803</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8984762.183218975</v>
+        <v>9013197.778561531</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>194.7251597156806</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>353.9097187984427</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>232.8281329308273</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>383.3069684452365</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>75.66037463868051</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>198.0314939545132</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>245.6558377980602</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>243.4292606194036</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>147.2660349062962</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>31.28831241118242</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.57797913823448</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>50.0396315862321</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>95.7453426469563</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>132.0238630998859</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>143.1942271930332</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.070001483213127</v>
+        <v>10.66919825352091</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>115.634879813834</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8659438253734</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>2.070001483213127</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>332.0571056388619</v>
       </c>
     </row>
     <row r="21">
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>111.5098183264942</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>125.6544692828931</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,10 +2482,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>30.80549757377528</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2618,7 +2618,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>72.13424985736054</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>35.3478058351353</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,10 +3187,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888186</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.292363805517355</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.74839431319</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.695249982871</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>71.1267519979036</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760555</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832453</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516995</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903947</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591136</v>
+        <v>163.2513804177636</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>104.0076614089756</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348855</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681761</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894736</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398239</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.74839431319</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.695249982871</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>71.1267519979036</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760555</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832457</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516995</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>44.1239350583809</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177636</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277811</v>
+        <v>126.8145494864315</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297365</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>9.515040001584069</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348855</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681761</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894736</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398239</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.74839431319</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.695249982871</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925367</v>
+        <v>71.1267519979036</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760555</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832453</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516995</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903947</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177636</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475441746</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>9.515040001584069</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348855</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681761</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894736</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398239</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.967087414384</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D2" t="n">
-        <v>775.482522971512</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295003</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.0908389732796</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>605.0908389732796</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2128461748023</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>538.7332355342593</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>958.7861344791625</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1378.455383704944</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.509060631519</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1024.329128378158</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.329128378158</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>796.9094576922666</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.1887779922017</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1400.691582106304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1400.691582106304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1399.876531557741</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X5" t="n">
-        <v>1384.774472177456</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.4883484771095</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509.4818394589739</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>509.4818394589739</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>343.6038466604966</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1292.259348259376</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>1218.718617258257</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>946.6922128445485</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>701.300458177961</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.300458177961</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.9014605315631</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C8" t="n">
-        <v>129.7993917553904</v>
+        <v>353.2675142929791</v>
       </c>
       <c r="D8" t="n">
-        <v>97.93001097023901</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>68.19567016893825</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>44.36864461855005</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461855005</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461855005</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461855005</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714679</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>479.6233320714679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>479.6233320714679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>479.6233320714679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>479.6233320714679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>953.717403061294</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215851</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174446</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927503</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2134.78035711134</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1914.713129984378</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.713129984378</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1552.096179918205</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1147.240725329238</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>998.4871547168175</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y8" t="n">
-        <v>590.2010310164709</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098428</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464851</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930384</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199921</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361537</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233759</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461855005</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900766</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.99064274522</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997768</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>944.0526198997768</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876344</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.1975056715053</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103852</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896059</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7197511921877</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>774.1580396754126</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>608.2800468769353</v>
+        <v>648.9169747579051</v>
       </c>
       <c r="E10" t="n">
-        <v>438.5220431276725</v>
+        <v>479.1589710086424</v>
       </c>
       <c r="F10" t="n">
-        <v>438.5220431276725</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535002</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438747</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461855005</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0215554151743</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>382.7800099863099</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>800.989891754271</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1260.473758935184</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1702.732562092828</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1702.732562092828</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2050.23945606317</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927503</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632875</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2197.014409632875</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1951.13496321133</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1672.701962464435</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.701962464435</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1400.675558050727</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.283803384139</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>1138.538369911175</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702663</v>
+        <v>2280.954724499762</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886087</v>
+        <v>1842.812251683185</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060531</v>
+        <v>1406.902466857629</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218826</v>
+        <v>973.1277220159245</v>
       </c>
       <c r="F11" t="n">
-        <v>782.355801628034</v>
+        <v>545.2602924251323</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>143.8624610483957</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451411</v>
+        <v>93.31737863805984</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519984</v>
       </c>
       <c r="J11" t="n">
-        <v>91.41102632165412</v>
+        <v>528.1552767181178</v>
       </c>
       <c r="K11" t="n">
-        <v>925.761318279832</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="L11" t="n">
-        <v>2000.821284532691</v>
+        <v>1541.654873666786</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.562988720409</v>
+        <v>1541.654873666786</v>
       </c>
       <c r="N11" t="n">
-        <v>2215.562988720409</v>
+        <v>2667.385857103233</v>
       </c>
       <c r="O11" t="n">
-        <v>3195.742655290715</v>
+        <v>3647.565523673539</v>
       </c>
       <c r="P11" t="n">
-        <v>4024.052530124111</v>
+        <v>4475.875398506935</v>
       </c>
       <c r="Q11" t="n">
-        <v>4570.551316082706</v>
+        <v>4475.875398506935</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082706</v>
+        <v>4645.029463259992</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266543</v>
+        <v>4561.377589443829</v>
       </c>
       <c r="T11" t="n">
-        <v>4486.899442266543</v>
+        <v>4561.377589443829</v>
       </c>
       <c r="U11" t="n">
-        <v>4227.677139583559</v>
+        <v>4302.155286760845</v>
       </c>
       <c r="V11" t="n">
-        <v>3865.060189517386</v>
+        <v>3939.538336694672</v>
       </c>
       <c r="W11" t="n">
-        <v>3460.204734928419</v>
+        <v>3534.682882105705</v>
       </c>
       <c r="X11" t="n">
-        <v>3041.06227150773</v>
+        <v>3115.540418685016</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187571</v>
+        <v>2707.254294984669</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931349</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.5255842396882</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666419</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828035</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489874</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519984</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256574</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918698</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985851</v>
+        <v>943.3966263421312</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818101</v>
+        <v>770.8349148253561</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833329</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340701</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958263</v>
+        <v>258.4918642393721</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165394</v>
+        <v>92.90058926519984</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519984</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519984</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298897</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010253</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254406</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.831467181769</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>2167.008582956875</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117572</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.601897481048</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F14" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947592</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J14" t="n">
-        <v>96.10516291661592</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K14" t="n">
-        <v>930.4554548747939</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>2005.515421127653</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>2005.515421127653</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>3131.2464045641</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285749</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119145</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S14" t="n">
-        <v>4805.258145830796</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T14" t="n">
-        <v>4585.190918703835</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U14" t="n">
-        <v>4325.968616020851</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.327982492535</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.472527903568</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.330064482879</v>
+        <v>3064.565197949007</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.043940782532</v>
+        <v>2656.27907424866</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.6011999935471</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C16" t="n">
-        <v>774.039488476772</v>
+        <v>774.2167549531752</v>
       </c>
       <c r="D16" t="n">
-        <v>608.1614956782948</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E16" t="n">
-        <v>438.403491929032</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F16" t="n">
-        <v>261.6964378907883</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G16" t="n">
-        <v>96.10516291661588</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.2824293930189</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577088</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.525603776731</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.646157355186</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.213156608292</v>
+        <v>2170.390423084694</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.257648478722</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.231244065013</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.839489398426</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.419818712534</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.744370297624</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.601897481048</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.692112655492</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.917367813787</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>787.049938222995</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G17" t="n">
-        <v>385.6521068462597</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H17" t="n">
-        <v>96.52195228947592</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N17" t="n">
-        <v>2440.770108580571</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O17" t="n">
-        <v>3420.949775150877</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.259649984273</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q17" t="n">
-        <v>4795.758435942868</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.167235241692</v>
+        <v>4803.344501718095</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.167235241692</v>
+        <v>4803.344501718095</v>
       </c>
       <c r="U17" t="n">
-        <v>4543.944932558708</v>
+        <v>4544.122199035111</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.327982492535</v>
+        <v>4181.505248968938</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.472527903568</v>
+        <v>3776.649794379971</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.330064482879</v>
+        <v>3357.507330959282</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.043940782532</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>446.7271610432859</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L18" t="n">
-        <v>446.7271610432859</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M18" t="n">
-        <v>446.7271610432859</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N18" t="n">
-        <v>446.7271610432859</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O18" t="n">
-        <v>446.7271610432859</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.163323528497</v>
+        <v>805.7762668106308</v>
       </c>
       <c r="C19" t="n">
-        <v>1002.601612011722</v>
+        <v>633.2145552938557</v>
       </c>
       <c r="D19" t="n">
-        <v>836.723619213245</v>
+        <v>467.3365624953785</v>
       </c>
       <c r="E19" t="n">
-        <v>666.9656154639822</v>
+        <v>467.3365624953785</v>
       </c>
       <c r="F19" t="n">
-        <v>490.2585614257384</v>
+        <v>467.3365624953785</v>
       </c>
       <c r="G19" t="n">
-        <v>324.6672864515661</v>
+        <v>301.7452875212062</v>
       </c>
       <c r="H19" t="n">
-        <v>184.7651121419406</v>
+        <v>184.9423786183436</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2553.523404117412</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.643957695867</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U19" t="n">
-        <v>2111.819772013672</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V19" t="n">
-        <v>2111.819772013672</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W19" t="n">
-        <v>1839.793367599964</v>
+        <v>1470.406310882097</v>
       </c>
       <c r="X19" t="n">
-        <v>1594.401612933376</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1366.981942247485</v>
+        <v>997.5948855296178</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.921636774029</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481048</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462597</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947592</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>2440.770108580571</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O20" t="n">
-        <v>3420.949775150877</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.259649984273</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q20" t="n">
-        <v>4795.758435942868</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S20" t="n">
-        <v>4805.258145830796</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.167235241692</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="U20" t="n">
-        <v>4543.944932558708</v>
+        <v>4471.247293151798</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.327982492535</v>
+        <v>4108.630343085624</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.472527903568</v>
+        <v>3703.774888496658</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.330064482879</v>
+        <v>3284.632425075969</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782532</v>
+        <v>2949.221207258936</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.163323528498</v>
+        <v>805.7762668106307</v>
       </c>
       <c r="C22" t="n">
-        <v>1002.601612011722</v>
+        <v>633.2145552938556</v>
       </c>
       <c r="D22" t="n">
-        <v>836.723619213245</v>
+        <v>467.3365624953783</v>
       </c>
       <c r="E22" t="n">
-        <v>666.9656154639822</v>
+        <v>297.5785587461155</v>
       </c>
       <c r="F22" t="n">
-        <v>490.2585614257384</v>
+        <v>297.5785587461155</v>
       </c>
       <c r="G22" t="n">
-        <v>324.6672864515661</v>
+        <v>184.9423786183436</v>
       </c>
       <c r="H22" t="n">
-        <v>184.7651121419406</v>
+        <v>184.9423786183436</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.346951524788</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.105582822784</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2532.105582822785</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2253.67258207589</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V22" t="n">
-        <v>1966.71707394632</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W22" t="n">
-        <v>1839.793367599964</v>
+        <v>1470.406310882097</v>
       </c>
       <c r="X22" t="n">
-        <v>1594.401612933376</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y22" t="n">
-        <v>1366.981942247485</v>
+        <v>997.5948855296178</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.611946844417</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C25" t="n">
-        <v>832.0502353276421</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.966900465231</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.850236249296</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1196.430565563404</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,40 +6227,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
@@ -6269,7 +6269,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238765</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>303.5569696238765</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>137.9656946497042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.441008084184</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.259626803171</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -7129,7 +7129,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218678</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>534.1336875958784</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207282</v>
+        <v>1368.483979554057</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573588</v>
+        <v>2419.807615032676</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784138</v>
+        <v>2419.807615032676</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220585</v>
+        <v>2419.807615032676</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790891</v>
+        <v>3399.987281602983</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790891</v>
+        <v>4228.297156436379</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4774.795942394973</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.95000714803</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109743</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760657</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.42861285555</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567254</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756163</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113351</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190881</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1130.234518340008</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779595</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>834.644890439061</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080659</v>
+        <v>680.5735674184602</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>522.622233447074</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>357.7218491867067</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>203.9372439904107</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569472</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773797</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946375</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024847</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231789</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526506</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516008</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872339</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903321</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551628</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.609966915796</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.024882027085</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.41188111907</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483851</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.92559644515</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397471</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333643</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>765.7936465207274</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197248</v>
+        <v>376.2024849218678</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581717</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958784</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554057</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.171683086914</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="N41" t="n">
-        <v>2492.90266652336</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="O41" t="n">
-        <v>3473.082333093667</v>
+        <v>3399.987281602983</v>
       </c>
       <c r="P41" t="n">
-        <v>4301.392207927063</v>
+        <v>4228.297156436379</v>
       </c>
       <c r="Q41" t="n">
-        <v>4847.890993885658</v>
+        <v>4774.795942394973</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.95000714803</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109743</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760659</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855552</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567255</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756165</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113352</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190882</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612081</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936667</v>
+        <v>825.0337389223098</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080655</v>
+        <v>780.464107550207</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716789</v>
+        <v>622.5127735788208</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463112</v>
+        <v>457.6123893184536</v>
       </c>
       <c r="G43" t="n">
-        <v>293.329412385015</v>
+        <v>303.8277841221577</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>175.7322795904087</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569472</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773797</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946375</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024847</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231788</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526506</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923383</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999256</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355588</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2150.36738838657</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034877</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399045</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1381.413730510334</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.26139948385</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.92559644515</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397471</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333643</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207272</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218678</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958784</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554057</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806916</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3399.987281602983</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4228.297156436379</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.795942394973</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.95000714803</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109743</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760658</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855551</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567254</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756164</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113351</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190881</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612072</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>825.0337389223087</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>670.9624159017079</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303217</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699544</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736587</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904087</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296059</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569472</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773797</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946375</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024847</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231789</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526505</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440134</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923383</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999256</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.993719355588</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.36738838657</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034877</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399045</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510334</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602318</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>152.0558298092333</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>239.122532279504</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897234</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318756</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318756</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>106.711181284007</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>64.29586949153969</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8623,7 +8623,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>180.9588939297878</v>
       </c>
       <c r="M11" t="n">
-        <v>216.9108123108258</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O14" t="n">
-        <v>131.362642143079</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,10 +9887,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-8.053963279557705e-14</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.94306614002</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11063,16 +11063,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919868</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>30.75170697498379</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919868</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.1992214249838</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.4579198163868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>290.0127116801728</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>215.7965533724785</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.74535359478823</v>
+        <v>72.14615682448046</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>22.86827275269525</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.78272691405235</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.7965533724786</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>72.14615682448118</v>
       </c>
     </row>
     <row r="21">
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.42554389793641</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>143.6516710866783</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>212.1323395461464</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1553467313939</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.8531101735154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.80688807745582</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297365</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.515040001584069</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>108.4066747320138</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.406674732014</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>775134.8342279766</v>
+        <v>785112.0358741105</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>775134.8342279766</v>
+        <v>785112.0358741105</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>780480.4249605426</v>
+        <v>785112.0358741105</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>728427.9035458819</v>
+        <v>737067.2706021963</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755653.5869129896</v>
+        <v>756681.7208116344</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755653.5869129896</v>
+        <v>756681.7208116346</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755653.5869129896</v>
+        <v>756681.7208116344</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791356.1105111333</v>
+        <v>791356.1105111332</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791356.1105111336</v>
+        <v>791356.1105111333</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791356.1105111332</v>
+        <v>791356.1105111333</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802512.3455780395</v>
+        <v>799386.8996040585</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802512.3455780395</v>
+        <v>799386.8996040584</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802512.3455780395</v>
+        <v>799386.8996040584</v>
       </c>
     </row>
   </sheetData>
@@ -26320,25 +26320,25 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>169736.7545837092</v>
+        <v>171749.8819208937</v>
       </c>
       <c r="F2" t="n">
-        <v>176080.826678643</v>
+        <v>176320.4003006637</v>
       </c>
       <c r="G2" t="n">
-        <v>176080.826678643</v>
+        <v>176320.4003006637</v>
       </c>
       <c r="H2" t="n">
-        <v>176080.8266786429</v>
+        <v>176320.4003006637</v>
       </c>
       <c r="I2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="J2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="K2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480734</v>
@@ -26347,13 +26347,13 @@
         <v>184400.1544480733</v>
       </c>
       <c r="N2" t="n">
-        <v>187651.5619616429</v>
+        <v>186740.9458938942</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.5619616431</v>
+        <v>186740.9458938941</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.5619616429</v>
+        <v>186740.9458938941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178253</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518676</v>
+        <v>147420.5464117498</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>12112.31405579347</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120709</v>
+        <v>19872.31248781268</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242543</v>
+        <v>123042.5210430564</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.5682709979</v>
+        <v>9350.882464078213</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>169218.7486993411</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>50223.09848921098</v>
+        <v>50818.75906240096</v>
       </c>
       <c r="F4" t="n">
-        <v>52100.2344013942</v>
+        <v>52171.12140311446</v>
       </c>
       <c r="G4" t="n">
-        <v>52100.23440139419</v>
+        <v>52171.12140311445</v>
       </c>
       <c r="H4" t="n">
-        <v>52100.23440139419</v>
+        <v>52171.12140311446</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
@@ -26451,13 +26451,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926988</v>
+        <v>64509.02828839306</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926989</v>
+        <v>64509.02828839304</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>64509.02828839306</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009804</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445713</v>
+        <v>70604.44784155187</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099079</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099079</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099079</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207661.2064864537</v>
+        <v>-258270.8554299487</v>
       </c>
       <c r="C6" t="n">
-        <v>-65469.90582674374</v>
+        <v>-34571.15684590382</v>
       </c>
       <c r="D6" t="n">
-        <v>-89393.83539957866</v>
+        <v>-34571.15684590385</v>
       </c>
       <c r="E6" t="n">
-        <v>-125531.4769618265</v>
+        <v>-97207.4548236714</v>
       </c>
       <c r="F6" t="n">
-        <v>34128.26618552036</v>
+        <v>38781.3816340544</v>
       </c>
       <c r="G6" t="n">
-        <v>50940.66846062068</v>
+        <v>50893.69568984787</v>
       </c>
       <c r="H6" t="n">
-        <v>50940.66846062063</v>
+        <v>50893.69568984791</v>
       </c>
       <c r="I6" t="n">
-        <v>31658.54226145096</v>
+        <v>32224.55390546276</v>
       </c>
       <c r="J6" t="n">
-        <v>-58894.37461233209</v>
+        <v>-122554.4823244307</v>
       </c>
       <c r="K6" t="n">
-        <v>52120.09073265805</v>
+        <v>52096.86639327544</v>
       </c>
       <c r="L6" t="n">
-        <v>19139.24566886065</v>
+        <v>52096.86639327544</v>
       </c>
       <c r="M6" t="n">
-        <v>-94419.28039159626</v>
+        <v>-70945.65464978095</v>
       </c>
       <c r="N6" t="n">
-        <v>30774.65344528542</v>
+        <v>36743.84145994817</v>
       </c>
       <c r="O6" t="n">
-        <v>43763.2217162835</v>
+        <v>46094.72392402634</v>
       </c>
       <c r="P6" t="n">
-        <v>43763.22171628335</v>
+        <v>46094.72392402634</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318756</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020676</v>
+        <v>1161.257365814998</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117713</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888007</v>
+        <v>493.742159207141</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>42.27300159773798</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704636</v>
+        <v>74.73013597200929</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117713</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888007</v>
+        <v>493.742159207141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117713</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888007</v>
+        <v>493.742159207141</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>42.27300159773798</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>227.3114150643781</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>77.64096817885718</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424778</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>36.4780074387441</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>50.4540796431744</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>180.9697050174728</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>86.05445909376064</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>23.65030257151119</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>188.1214263578963</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>267.6850038801862</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>143.6516710866789</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.5674948407983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009744</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009777</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,13 +34778,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>152.0558298092333</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>239.122532279504</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897234</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318756</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318756</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>106.711181284007</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>64.29586949153969</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>180.9588939297878</v>
       </c>
       <c r="M11" t="n">
-        <v>216.9108123108258</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O14" t="n">
-        <v>131.362642143079</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36525,16 +36525,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.94306614002</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917843</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761943</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446565</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313919</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919868</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>30.75170697498379</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917843</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761943</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446563</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756982</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313924</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919868</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609692</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917843</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761943</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446565</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313919</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966045</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
